--- a/docs/informal-kushi-tanaka-tool/all-you-can-eat/data/串メニュー.xlsx
+++ b/docs/informal-kushi-tanaka-tool/all-you-can-eat/data/串メニュー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\everyday-use\Blog\docs\informal-kushi-tanaka-tool\all-you-can-eat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B7412E-DA5B-4106-BFDE-5E067B76436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC4B07C-7778-43B5-85D1-56EDA48D3746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>番号</t>
   </si>
@@ -80,92 +80,100 @@
     <t>鶏つくね</t>
   </si>
   <si>
+    <t>ささみわさび</t>
+  </si>
+  <si>
+    <t>豚しそ</t>
+  </si>
+  <si>
+    <t>海鮮串</t>
+  </si>
+  <si>
+    <t>つぶ貝</t>
+  </si>
+  <si>
+    <t>アジフライ</t>
+  </si>
+  <si>
+    <t>キス</t>
+  </si>
+  <si>
+    <t>たらこ</t>
+  </si>
+  <si>
+    <t>エビ</t>
+  </si>
+  <si>
+    <t>野菜串</t>
+  </si>
+  <si>
+    <t>レンコン</t>
+  </si>
+  <si>
+    <t>玉ねぎ</t>
+  </si>
+  <si>
+    <t>じゃが芋</t>
+  </si>
+  <si>
+    <t>ニンニク</t>
+  </si>
+  <si>
+    <t>紅（べに）しょうが</t>
+  </si>
+  <si>
+    <t>なすび</t>
+  </si>
+  <si>
+    <t>しいたけ</t>
+  </si>
+  <si>
+    <t>トマト</t>
+  </si>
+  <si>
+    <t>山芋</t>
+  </si>
+  <si>
+    <t>アスパラ</t>
+  </si>
+  <si>
+    <t>他串</t>
+  </si>
+  <si>
+    <t>うずら</t>
+  </si>
+  <si>
+    <t>チーズ</t>
+  </si>
+  <si>
+    <t>もち</t>
+  </si>
+  <si>
+    <t>甘串</t>
+  </si>
+  <si>
+    <t>クッキー＆クリーム</t>
+  </si>
+  <si>
+    <t>バナナ</t>
+  </si>
+  <si>
     <t>ささみ梅大葉（しそ）</t>
-  </si>
-  <si>
-    <t>ささみわさび</t>
-  </si>
-  <si>
-    <t>豚しそ</t>
-  </si>
-  <si>
-    <t>海鮮串</t>
-  </si>
-  <si>
-    <t>つぶ貝</t>
-  </si>
-  <si>
-    <t>アジフライ</t>
-  </si>
-  <si>
-    <t>キス</t>
-  </si>
-  <si>
-    <t>たらこ</t>
-  </si>
-  <si>
-    <t>エビ</t>
-  </si>
-  <si>
-    <t>野菜串</t>
-  </si>
-  <si>
-    <t>レンコン</t>
-  </si>
-  <si>
-    <t>玉ねぎ</t>
-  </si>
-  <si>
-    <t>じゃが芋</t>
-  </si>
-  <si>
-    <t>ニンニク</t>
-  </si>
-  <si>
-    <t>紅（べに）しょうが</t>
-  </si>
-  <si>
-    <t>なすび</t>
-  </si>
-  <si>
-    <t>しいたけ</t>
-  </si>
-  <si>
-    <t>トマト</t>
-  </si>
-  <si>
-    <t>山芋</t>
-  </si>
-  <si>
-    <t>アスパラ</t>
-  </si>
-  <si>
-    <t>他串</t>
-  </si>
-  <si>
-    <t>うずら</t>
-  </si>
-  <si>
-    <t>チーズ</t>
-  </si>
-  <si>
-    <t>もち</t>
-  </si>
-  <si>
-    <t>甘串</t>
-  </si>
-  <si>
-    <t>クッキー＆クリーム</t>
-  </si>
-  <si>
-    <t>バナナ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホルモン串</t>
+    <rPh sb="4" eb="5">
+      <t>クシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -193,6 +201,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -236,10 +251,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -458,7 +474,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -487,9 +503,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A34" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -502,142 +518,142 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -645,14 +661,14 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D12" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -661,309 +677,324 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D15" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="D16" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="2">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D20" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <f t="shared" si="0"/>
+      <c r="D25" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D24" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D30" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D31" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="2">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D32" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D33" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="D34" s="2">
         <v>110</v>
       </c>
     </row>

--- a/docs/informal-kushi-tanaka-tool/all-you-can-eat/data/串メニュー.xlsx
+++ b/docs/informal-kushi-tanaka-tool/all-you-can-eat/data/串メニュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\everyday-use\Blog\docs\informal-kushi-tanaka-tool\all-you-can-eat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC4B07C-7778-43B5-85D1-56EDA48D3746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862596CD-4C5E-42AB-BFB8-23869841FEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12530" yWindow="3130" windowWidth="20570" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -158,14 +158,14 @@
     <t>バナナ</t>
   </si>
   <si>
-    <t>ささみ梅大葉（しそ）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ホルモン串</t>
     <rPh sb="4" eb="5">
       <t>クシ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ささみ梅大葉（おおば）</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -485,11 +485,11 @@
   <cols>
     <col min="1" max="1" width="5.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2">
         <v>50</v>
@@ -662,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2">
         <v>200</v>

--- a/docs/informal-kushi-tanaka-tool/all-you-can-eat/data/串メニュー.xlsx
+++ b/docs/informal-kushi-tanaka-tool/all-you-can-eat/data/串メニュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\everyday-use\Blog\docs\informal-kushi-tanaka-tool\all-you-can-eat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862596CD-4C5E-42AB-BFB8-23869841FEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DEA14D-6BD5-4504-B140-D8137A8E92C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12530" yWindow="3130" windowWidth="20570" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>番号</t>
   </si>
@@ -168,12 +168,22 @@
     <t>ささみ梅大葉（おおば）</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>税込み価格</t>
+    <rPh sb="0" eb="2">
+      <t>ゼイコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -203,6 +213,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
@@ -251,11 +269,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -474,11 +493,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -487,9 +506,10 @@
     <col min="2" max="2" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +522,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A34" si="0">ROW()-1</f>
         <v>1</v>
@@ -517,8 +540,12 @@
       <c r="D2" s="2">
         <v>270</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
+        <f>D2*1.1</f>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -532,8 +559,12 @@
       <c r="D3" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E34" si="1">D3*1.1</f>
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -547,8 +578,12 @@
       <c r="D4" s="2">
         <v>170</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>187.00000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -562,8 +597,12 @@
       <c r="D5" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>198.00000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -577,8 +616,12 @@
       <c r="D6" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -592,8 +635,12 @@
       <c r="D7" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>198.00000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -607,8 +654,12 @@
       <c r="D8" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -622,8 +673,12 @@
       <c r="D9" s="2">
         <v>230</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>253.00000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -637,8 +692,12 @@
       <c r="D10" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -652,8 +711,12 @@
       <c r="D11" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -667,8 +730,12 @@
       <c r="D12" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>220.00000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -682,8 +749,12 @@
       <c r="D13" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>220.00000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -697,8 +768,12 @@
       <c r="D14" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>220.00000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -712,8 +787,12 @@
       <c r="D15" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -727,8 +806,12 @@
       <c r="D16" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -742,8 +825,12 @@
       <c r="D17" s="2">
         <v>230</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>253.00000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -757,8 +844,12 @@
       <c r="D18" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -772,8 +863,12 @@
       <c r="D19" s="2">
         <v>230</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>253.00000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -787,8 +882,12 @@
       <c r="D20" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>121.00000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -802,8 +901,12 @@
       <c r="D21" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>121.00000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -817,8 +920,12 @@
       <c r="D22" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -832,8 +939,12 @@
       <c r="D23" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -847,8 +958,12 @@
       <c r="D24" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -862,8 +977,12 @@
       <c r="D25" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -877,8 +996,12 @@
       <c r="D26" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="2">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -892,8 +1015,12 @@
       <c r="D27" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -907,8 +1034,12 @@
       <c r="D28" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -922,8 +1053,12 @@
       <c r="D29" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -937,8 +1072,12 @@
       <c r="D30" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="2">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -952,8 +1091,12 @@
       <c r="D31" s="2">
         <v>230</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <f t="shared" si="1"/>
+        <v>253.00000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -967,8 +1110,12 @@
       <c r="D32" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <f t="shared" si="1"/>
+        <v>198.00000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -982,8 +1129,12 @@
       <c r="D33" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="2">
+        <f t="shared" si="1"/>
+        <v>121.00000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -996,6 +1147,10 @@
       </c>
       <c r="D34" s="2">
         <v>110</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>121.00000000000001</v>
       </c>
     </row>
   </sheetData>
